--- a/Examples.xlsx
+++ b/Examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guorlei/Documents/berkeley/sp20/bioe140l/independent_proj/pcr-plugin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0C1FA-BEB4-F24E-B0F7-EB1D21AE0E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F052E248-819B-184B-AF62-873E2F48D06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0499FB3D-CA90-F149-B3BF-63D904153723}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>TCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCtaaCTCGAcgtgcaggcttcctcgctcactgactcgctgcgctcggtcgttcggctgcggcgagcggtatcagctcactcaaaggcggtaatCAATTCGACCCAGCTTTCTTGTACAAAGTTGGCATTATAAAAAATAATTGCTCATCAATTTGTTGCAACGAACAGGTCACTATCAGTCAAAATAAAATCATTATTTGCCATCCAGCTGATATCCCCTATAGTGAGTCGTATTACATGGTCATAGCTGTTTCCTGGCAGCTCTGGCCCGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGCCTCCTCTAGACCAGCCAGGACAGAAATGCCTCGACTTCGCTGCTGCCCAAGGTTGCCGGGTGACGCACACCGTGGAAACGGATGAAGGCACGAACCCAGTGGACATAAGCCTGTTCGGTTCGTAAGCTGTAATGCAAGTAGCGTATGCGCTCACGCAACTGGTCCAGAACCTTGACCGAACGCAGCGGTGGTAACGGCGCAGTGGCGGTTTTCATGGCTTGTTATGACTGTTTTTTTGGGGTACAGTCTATGCCTCGGGCATCCAAGCAGCAAGCGCGTTACGCCGTGGGTCGATGTTTGATGTTATGGAGCAGCAACGATGTTACGCAGCAGGGCAGTCGCCCTAAAACAAAGTTAAACATCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAACCCTCGAGCCACCCATGACCAAAATCCCTTAACGTGAGTTACGCGTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCATTGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTcctaggTGTAAAACGACGGCCAGTCTTAAGCTCGGGCCCCAAATAATGATTTTATTTTGACTGATAGTGACCTGTTCGTTGCAACAAATTGATGAGCAATGCTTTTTTATAATGCCAACTTTGTACAAAAAAGCAGGCTCCGAATTGgtatcacgaggcagaatttcagataaaaaaaatccttagctttcgctaaggatgatttctgGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCC</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>PCR_V3</t>
+  </si>
+  <si>
+    <t>PCR_V4</t>
   </si>
 </sst>
 </file>
@@ -227,6 +230,7 @@
       <definedName name="PCR_v1"/>
       <definedName name="PCR_V2"/>
       <definedName name="PCR_V3"/>
+      <definedName name="PCR_V4"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -533,10 +537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB01833-FBA1-8941-8EED-812B146F9DBD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -545,10 +549,11 @@
     <col min="2" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="42.83203125" customWidth="1"/>
     <col min="6" max="6" width="44.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="48.83203125" customWidth="1"/>
+    <col min="8" max="8" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -570,8 +575,11 @@
       <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:8" ht="17">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -596,8 +604,12 @@
         <f t="array" ref="G2">[1]!PCR_V3(B2,C2,D2)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
+      <c r="H2" t="str" cm="1">
+        <f t="array" ref="H2">[1]!PCR_V4(B2,C2,D2)</f>
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:8" ht="17">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -622,8 +634,12 @@
         <f t="array" ref="G3">[1]!PCR_V3(B3,C3,D3)</f>
         <v>CCAAAAGATCTATGAGCGGCTTCCCCCGCAGCGTCGTCGTCGGCGGCAGCGGGGCGGTGGGCGGCATGTTCGCCGGGCTGCTGCGGGAGGCGGGCAGCCGCACGCTCGTCGTCGACCTCGTACCGCCGCCGGGACGGCCGGACGCCTGCCTGGTGGGCGACGTCACCGCGCCGGGGCCCGAACTCGCGGCCGCCCTCCGGGACGCGGACCTCGTCCTGCTCGCCGTACACGAGGACGTGGCCCTCAAGGCCGTGGCGCCCGTGACCCGGCTCATGCGGCCGGGCGCGCTGCTCGCCGACACCCTGTCCGTCCGGACGGGCATGGCCGCGGAGCTCGCGGCCCACGCCCCCGGCGTCCAGCACGTGGGCCTCAACCCGATGTTCGCCCCCGCCGCCGGCATGACCGGCCGACCCGTGGCCGCCGTGGTCACCAGGGACGGGCCGGGCGTCACGGCCCTGCTGCGGCTCGTCGAGGGCGGCGGCGGCAGGCCCGTACGGCTCACGGCGGAGGAGCACGACCGGACGACGGCGGCCACCCAGGCCCTGACGCACGCCGTGCTCCTCTCCTTCGGGCTCGCCCTCGCCCGCCTCGGCGTCGACGTCCGGGCCCTGGCGGCGACGGCACCGCCGCCCCACCAGGTGCTGCTCGCCCTCCTGGCCCGTGTGCTCGGCGGCAGCCCCGAGGTGTACGGGGACATCCAGCGGTCCAACCCCCGGGCGGCGTCCGCGCGCCGGGCGCTCGCCGAGGCCCTGCGCTCCTTCGCCGCGCTGGTCGGCGACGACCCGGACCGTGCCGACGCCCCCGGGCGCGCCGACGCCCCCGGCCATCCCGGGGGATGCGACGGCGCCGGGAACCTCGACGGCGTCTTCGGGGAACTCCGCCGGCTCATGGGACCGGAGCTCGCGGCGGGCCAGGACCACTGCCAGGAGCTGTTCCGCACCCTCCACCGCACCGACGACGAAGGCGAGAAGGACCGATGAGGATCCTAACTCGAGCTAGC</v>
       </c>
+      <c r="H3" t="str" cm="1">
+        <f t="array" ref="H3">[1]!PCR_V4(B3,C3,D3)</f>
+        <v>CCAAAAGATCTATGAGCGGCTTCCCCCGCAGCGTCGTCGTCGGCGGCAGCGGGGCGGTGGGCGGCATGTTCGCCGGGCTGCTGCGGGAGGCGGGCAGCCGCACGCTCGTCGTCGACCTCGTACCGCCGCCGGGACGGCCGGACGCCTGCCTGGTGGGCGACGTCACCGCGCCGGGGCCCGAACTCGCGGCCGCCCTCCGGGACGCGGACCTCGTCCTGCTCGCCGTACACGAGGACGTGGCCCTCAAGGCCGTGGCGCCCGTGACCCGGCTCATGCGGCCGGGCGCGCTGCTCGCCGACACCCTGTCCGTCCGGACGGGCATGGCCGCGGAGCTCGCGGCCCACGCCCCCGGCGTCCAGCACGTGGGCCTCAACCCGATGTTCGCCCCCGCCGCCGGCATGACCGGCCGACCCGTGGCCGCCGTGGTCACCAGGGACGGGCCGGGCGTCACGGCCCTGCTGCGGCTCGTCGAGGGCGGCGGCGGCAGGCCCGTACGGCTCACGGCGGAGGAGCACGACCGGACGACGGCGGCCACCCAGGCCCTGACGCACGCCGTGCTCCTCTCCTTCGGGCTCGCCCTCGCCCGCCTCGGCGTCGACGTCCGGGCCCTGGCGGCGACGGCACCGCCGCCCCACCAGGTGCTGCTCGCCCTCCTGGCCCGTGTGCTCGGCGGCAGCCCCGAGGTGTACGGGGACATCCAGCGGTCCAACCCCCGGGCGGCGTCCGCGCGCCGGGCGCTCGCCGAGGCCCTGCGCTCCTTCGCCGCGCTGGTCGGCGACGACCCGGACCGTGCCGACGCCCCCGGGCGCGCCGACGCCCCCGGCCATCCCGGGGGATGCGACGGCGCCGGGAACCTCGACGGCGTCTTCGGGGAACTCCGCCGGCTCATGGGACCGGAGCTCGCGGCGGGCCAGGACCACTGCCAGGAGCTGTTCCGCACCCTCCACCGCACCGACGACGAAGGCGAGAAGGACCGATGAGGATCCTAACTCGAGCTAGC</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:8" ht="17">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -648,8 +664,12 @@
         <f t="array" ref="G4">[1]!PCR_V3(B4,C4,"")</f>
         <v>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</v>
       </c>
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4">[1]!PCR_V4(B4,C4,"")</f>
+        <v>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:8" ht="17">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -674,8 +694,12 @@
         <f t="array" ref="G5">[1]!PCR_V3(B5,C5,D5)</f>
         <v>No PCR product generated.</v>
       </c>
+      <c r="H5" t="str" cm="1">
+        <f t="array" ref="H5">[1]!PCR_V4(B5,C5,D5)</f>
+        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:8" ht="17">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -700,8 +724,12 @@
         <f t="array" ref="G6">[1]!PCR_V3(B6,C6,D6)</f>
         <v>No PCR product generated.</v>
       </c>
+      <c r="H6" t="str" cm="1">
+        <f t="array" ref="H6">[1]!PCR_V4(B6,C6,D6)</f>
+        <v>No PCR product generated.</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="68">
+    <row r="7" spans="1:8" ht="68">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -726,8 +754,12 @@
         <f t="array" ref="G7">[1]!PCR_V3(B7,C7,D7)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
+      <c r="H7" t="str" cm="1">
+        <f t="array" ref="H7">[1]!PCR_V4(B7,C7,D7)</f>
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="34">
+    <row r="8" spans="1:8" ht="34">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -750,6 +782,10 @@
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" ref="G8">[1]!PCR_V3(B8,C8,D8)</f>
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
+      <c r="H8" t="str" cm="1">
+        <f t="array" ref="H8">[1]!PCR_V4(B8,C8,D8)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
     </row>

--- a/Examples.xlsx
+++ b/Examples.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guorlei/Documents/berkeley/sp20/bioe140l/independent_proj/pcr-plugin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F052E248-819B-184B-AF62-873E2F48D06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880128F5-594C-C748-80F1-7467A5F0864B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0499FB3D-CA90-F149-B3BF-63D904153723}"/>
+    <workbookView xWindow="31600" yWindow="460" windowWidth="48400" windowHeight="28340" xr2:uid="{0499FB3D-CA90-F149-B3BF-63D904153723}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Comparison of Approaches" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
   <si>
     <t>TCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCtaaCTCGAcgtgcaggcttcctcgctcactgactcgctgcgctcggtcgttcggctgcggcgagcggtatcagctcactcaaaggcggtaatCAATTCGACCCAGCTTTCTTGTACAAAGTTGGCATTATAAAAAATAATTGCTCATCAATTTGTTGCAACGAACAGGTCACTATCAGTCAAAATAAAATCATTATTTGCCATCCAGCTGATATCCCCTATAGTGAGTCGTATTACATGGTCATAGCTGTTTCCTGGCAGCTCTGGCCCGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGCCTCCTCTAGACCAGCCAGGACAGAAATGCCTCGACTTCGCTGCTGCCCAAGGTTGCCGGGTGACGCACACCGTGGAAACGGATGAAGGCACGAACCCAGTGGACATAAGCCTGTTCGGTTCGTAAGCTGTAATGCAAGTAGCGTATGCGCTCACGCAACTGGTCCAGAACCTTGACCGAACGCAGCGGTGGTAACGGCGCAGTGGCGGTTTTCATGGCTTGTTATGACTGTTTTTTTGGGGTACAGTCTATGCCTCGGGCATCCAAGCAGCAAGCGCGTTACGCCGTGGGTCGATGTTTGATGTTATGGAGCAGCAACGATGTTACGCAGCAGGGCAGTCGCCCTAAAACAAAGTTAAACATCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAACCCTCGAGCCACCCATGACCAAAATCCCTTAACGTGAGTTACGCGTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCATTGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTcctaggTGTAAAACGACGGCCAGTCTTAAGCTCGGGCCCCAAATAATGATTTTATTTTGACTGATAGTGACCTGTTCGTTGCAACAAATTGATGAGCAATGCTTTTTTATAATGCCAACTTTGTACAAAAAAGCAGGCTCCGAATTGgtatcacgaggcagaatttcagataaaaaaaatccttagctttcgctaaggatgatttctgGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCC</t>
   </si>
@@ -120,15 +121,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>ccaaaAGATCTatgagcggcttcccccgcag</t>
-  </si>
-  <si>
-    <t>gctagCTCGAGttaGGATCCtcatcggtccttctcgccttc</t>
-  </si>
-  <si>
-    <t>ggatccgccgaggtcgtcgccctgcccttcctcggcgaacacggcgacctgcgcatccgcagcaagaccggatggctgatccgcttcggggagcgctccgtgctgttcgccgccgactccaccaacatctccccgacgatgtacaccaaggtggccgaggtgatcggccccgtcgacaccgtcttcatcggcatggagagcatcggcgcggcggccagctggatctacggtccgctctacggcgagccgctcgaccgcaggaccgaccagagccgacggctcaacggctccaacttcccccaggcgagggagatcgtcgacgccctggagcccgacgaggtctatgtgtacgcgatgggcctcgaaccctggatgggcgtcgtgatggccgtcgactacgacgagagccaccccgccatcgtcgacagcgacctcctcgtccggcacgtccaggacaagggcggggccgccgaacggctgcacctccggcggacgctgcgcctctgagcgacgcgacgcccgcggccggggcgcggcgatccgccgcccccggcccccggcccctccggcacggcccctccggcccgtccccgtggcccgccgccgcccccgcgccctccggcgagcccttcgagacaaggtgccccatcatgcgcacgcttctgatcgacaactacgactcgttcacccacaacctgttccagtacatcggcgaggccaccgggcaaccccccgtcgtcgtgcccaacgacgccgactggtcgcggctgcccgtcgaggacttcgacgcgatcgtcgtgtccccgggccccggcagccccgaccgggaacgggacttcggaatcagccgccgggcgatcaccgacagcggcctgcccgtcctcggcgtctgcctcggccaccagggcatcgcccagctcttcggcggaaccgtcggcctcgccccggaacccatgcacggccgggtctccgaggtgcggcacaccggcgaggacgtcttccggggcctcccctcgccgttcaccgccgtgcgctaccactccctggccgccaccgacctccccgacgagctcgaacccctcgcctggagcgacgacggggtcgtcatgggcctgcggcaccgcgagaagccgctgtggggcgtccagttccacccggagtccatcggcagcgacttcggccgggagatcatggccaacttccgcgacctcgccctcgcccaccaccgggcacggcgccacggggccgactccccgtacgaactccacgtgcgccgcgtcgacgtgctgccggacgccgaagaggtacgccgcggctgcctgcccggcgagggcaccacgttctggctggacagcagctccgtcctcgaaggcgcctcgcgcttctccttcctcggcgacgaccgcggcccgctcgccgagtacctcacctaccgcgtcgccgacggcgtcgtctccgtccgcggctccgacggcaccacgacccggacgcggcgccccttcttcaactacctggaggagcagctcgaacgccgacgggtccccgtcgcccccgaactgcccttcgagttcaacctcggctacgtcggctacctcggctacgagctgaaggcggagaccaccggcgaccccgcgcaccggtccccgcaccccgacgccgcgttcctcttcgccgaccgcgccatcgccctcgaccaccaggaaggctgctgctacctgctggccctcgaccgccggggccacgacgacggcgcccgcgcctggctgcgggagacggccgagaccctcaccggcctggccgtccgcgccccggccgagccgacccccgccatggtcttcgggatccccgaggcggcggccggcttcggccccctggcccgcgcgcgccacgacaaggacgcctacctcaagcgcatcgacgagtgcctcaaggagatccgcaacggcgagtcgtacgagatctgcctgaccaacatggtcaccgcgccgaccgaggcgacggccctgccgctctactccgcgctgcgcgccatcagccccgtcccgtacggcgccctgctcgagttccccgaactgtcggtgctgagcgcctcgcccgagcggttcctcacgatcggcgccgacggcggcgtcgagtccaagcccatcaaggggacccgcccccggggcggcaccgcggaggaggacgagcggctccgcgccgacctggccggccgggagaaggaccgggccgagaacctgatgatcgtcgacctggtccgcaacgacctcaacagcgtctgcgcgatcggctccgtccacgtgccccggctcttcgaggtggagacctacgcgcccgtgcaccagctggtgtcgaccatccggggacggctgcggcccggcaccagcaccgccgcctgcgtacgcgccgccttccccggcggctccatgaccggcgcgcccaagaagcgcaccatggagatcatcgaccgcctggaggaaggcccccggggcgtctactccggggcgctcggatggttcgccctcagcggcgccgccgacctcagcatcgtcatccgcaccatcgtgctggccgacggccaggcggagttcggcgtcggcggggcgatcgtgtccctctccgaccaggaggaggagttcaccgagaccgtggtaaaggcccgcgccatggtcaccgccctcgacggcagcgccgtggcgggcgcccgatgagcggcttcccccgcagcgtcgtcgtcggcggcagcggggcggtgggcggcatgttcgccgggctgctgcgggaggcgggcagccgcacgctcgtcgtcgacctcgtaccgccgccgggacggccggacgcctgcctggtgggcgacgtcaccgcgccggggcccgaactcgcggccgccctccgggacgcggacctcgtcctgctcgccgtacacgaggacgtggccctcaaggccgtggcgcccgtgacccggctcatgcggccgggcgcgctgctcgccgacaccctgtccgtccggacgggcatggccgcggagctcgcggcccacgcccccggcgtccagcacgtgggcctcaacccgatgttcgcccccgccgccggcatgaccggccgacccgtggccgccgtggtcaccagggacgggccgggcgtcacggccctgctgcggctcgtcgagggcggcggcggcaggcccgtacggctcacggcggaggagcacgaccggacgacggcggccacccaggccctgacgcacgccgtgctcctctccttcgggctcgccctcgcccgcctcggcgtcgacgtccgggccctggcggcgacggcaccgccgccccaccaggtgctgctcgccctcctggcccgtgtgctcggcggcagccccgaggtgtacggggacatccagcggtccaacccccgggcggcgtccgcgcgccgggcgctcgccgaggccctgcgctccttcgccgcgctggtcggcgacgacccggaccgtgccgacgcccccgggcgcgccgacgcccccggccatcccgggggatgcgacggcgccgggaacctcgacggcgtcttcggggaactccgccggctcatgggaccggagctcgcggcgggccaggaccactgccaggagctgttccgcaccctccaccgcaccgacgacgaaggcgagaaggaccgatgaccgagcagaacgagctgcagcggctgcgcgcggagctcgacgccctcgacgggacgctcctggacacggtgcggcgccgcatcgacctcggtgtccgcatcgcgcggtacaagtcccggcacggcgtcccgatgatgcagcccggccgggtcagcctggtcaaggacagggccgcccgctacgccgccgaccacggcctcgacgaatcgttcctggtgaacctctacgacgtgatcatcacggagatgtgccgcgtcgaggacctggtgatgagccgggagagcctgacggccgaggaccggcggtgaccccgccggtccggaccactccgtacgacccccaccacagccccgccggcggtgttccgacgagggcggaggagaccacgatgcacgcgaccacgacgctcgcggccctgaccgggcggacggcggcacaacagccctactggcccgacccggacgccgtcgacacggtggagcgggagctggccggactgcccgtcctcacccccgaggacgaggtcgtcgacctgatgaacgggatggcgctggtcgcccgcggcgcggcgctcctcgtccagggcggcgactgcgccgaacgcttccacgaggccgtgcccgacctggtacgccgcaaggtcgacaacctccagggcctcgccgcgatcatgcgggccggcagcgggctgcccgcggtggccctcggccggatcgccggccagtacgggaagccgcgctcctcgccgttcgagaccgaggagtcgggcgcgggccgaaagatgcccagctactgcggcgacgccgtcaacgagcccgagttcgaaccggccgccaggaccccggagccccgcaggctcctcaccgcgtacacctgctcgcagatcgtcctcgacgagatccggcgctcctggtcgggccggcccgtcctggaacgggtctacacctcccacgagttgctgctgctgccgtacgaacggccgctggtgcgcgagggcgcccacggtacgtacagcggttccgcgcacttcggctggatcggcgagcgcacccgccgggaggacggcgcccacgtcgccctcgcccaggccgtgcacaaccccgtcggcgtcaagctggggccgacggtgtcgccggaggacgcggtcgccctgagccggtcgctgaacccggagggcgtaccgggacggctgacgttcatcgtgcgcttcggcgccaaggaggtggacgagctcctgccgccggtcgtccgtgcggtcgcccggcacggcgcaccggtcgtctggctctgcgacccgatgcacggcaacgggctgaaactggccggtcacaagacccggctgatcgagccgatgcgcgccgagaccgccgccttcgtacggacgctacgggagcacgggcagtggcccgcgggcctccacctggagctcaccccggacccggtcaccgaatgcgtgtcggagctcgaccggccgccgcggttcacggactaccggtccacctgcgacccccggctgaaccccgagcagtcggcggacatggtcacccatttcctctccctgctctgaccggatcc</t>
-  </si>
-  <si>
     <t>aactcagcaaaagttcgatttattcaacaaagccacgttgtgtctcaaaatctctgatgttacattgcacaagataaaaatatatcatcatgaacaataaaactgtctgcttacataaacagtaatacaaggggtgttatgagccatattcaacgggaaacgtcttgctccaggccgcgattaaattccaacatggatgctgatttatatgggtataaatgggctcgcgataatgtcgggcaatcaggtgcgacaatctatcgattgtatgggaagcccgatgcgccagagttgtttctgaaacatggcaaaggtagcgttgccaatgatgttacagatgagatggtcagactaaactggctgacggaatttatgcctcttccgaccatcaagcattttatccgtactcctgatgatgcatggttactcaccactgcgatccccgggaaaacagcattccaggtattagaagaatatcctgattcaggtgaaaatattgttgatgcgctggcagtgttcctgcgccggttgcattcgattcctgtttgtaattgtccttttaacagcgatcgcgtatttcgtctcgctcaggcgcaatcacgaatgaataacggtttggttgatgcgagtgattttgatgacgagcgtaatggctggcctgttgaacaagtctggaaagaaatgcataagcttttgccattctcaccggattcagtcgtcactcatggtgatttctcacttgataaccttatttttgacgaggggaaattaataggttgtattgatgttggacgagtcggaatcgcagaccgataccaggatcttgccatcctatggaactgcctcggtgagttttctccttcattacagaaacggctttttcaaaaatatggtattgataatcctgatatgaataaattgcagtttcatttgatgctcgatgagtttttctaatcagaattggttaattggttgtaacactggcagagcattacgctgacttgacgggactcgagctgtcagaccaagtttactcatatatactttagattgatttaaaacttcatttttaatttaaaaggatctaggtgaagatcctttttgataatctcatgaccaaaatcccttaacgtgagttttcgttccactgagcgtcagaccccgtagaaaagatcaaaggatcttcttgagatcctttttttctgcgcgtaatctgctgcttgcaaacaaaaaaaccaccgctaccagcggtggtttgtttgccggatcaagagctaccaactctttttccgaaggtaactggcttcagcagagcgcagataccaaatactgtccttctagtgtagccgtagttaggccaccacttcaagaactctgtagcaccgcctacatacctcgctctgctaatcctgttaccagtggctgctgccagtggcgataagtcgtgtcttaccgggttggactcaagacgatagttaccggataaggcgcagcggtcgggctgaacggggggttcgtgcacacagcccagcttggagcgaacgacctacaccgaactgagatacctacagcgtgagctatgagaaagcgccacgcttcccgaagggagaaaggcggacaggtatccggtaagcggcagggtcggaacaggagagcgcacgagggagcttccagggggaaacgcctggtatctttatagtcctgtcgggtttcgccacctctgacttgagcgtcgatttttgtgatgctcgtcaggggggcggagcctatggaaaaacgccagcaacgcggcctttttacggttcctggccttttgctggccttttgctcacatgttctttcctgcgttatcccctgattctgtggataaccgtattaccgcctttgagtgagctgataccgctcgccgcagccgaacgaccgagcgcagcgagtcagtgagcgaggaagcctgcataacgcgaagtaatcttttcggttttaaagaaaaagggcagggtggtgacaccttgcccgtttttttgccggactgcagcggccgctactagtatataaacgcagaaaggcccacccgaaggtgagccagtgtgactctagtagagagcgttcaccgacaaacaacagataaaacgaaaggcccagtctttcgactgagcctttcgttttatttgatgcctggctctagatgcggccgcgaattccagaaatcatccttagcgaaagctaaggattttttttatctgaaattctgcctcgtgatacgcctatttttataggttaatgtcatgataataatggtttcttagacgtcaggtggcacttttcggggaaatgtgcgcggaacccctatttgtttatttttctaaatacattcaaatatgtatccgctcatgagacaataaccctgataaatgcttcaataatattgaaaaaggaagagtatgagtattcaacatttccgtgtcgcccttattcccttttttgcggcattttgccttcctgtttttgctcacccagaaacgctggtgaaagtaaaagatgctgaagatcagttgggtgcacgagtgggttacatcgaactggatctcaacagcggtaagatccttgagagttttcgccccgaagaacgttttccaatgatgagcacttttaaagttctgctatgtggcgcggtattatcccgtattgacgccgggcaagagcaactcggtcgccgcatacactattctcagaatgacttggttgagtactcaccagtcacagaaaagcatcttacggatggcatgacagtaagagaattatgcagtgctgccataaccatgagtgataacactgcggccaacttacttctgacaacgatcggaggaccgaaggagctaaccgcttttttgcacaacatgggggatcatgtaactcgccttgatcgttgggaaccggagctgaatgaagccataccaaacgacgagcgtgacaccacgatgcctgtagcaatggcaacaacgttgcgcaaactattaactggcgaactacttactctagcttcccggcaacaattaatagactggatggaggcggataaagttgcaggaccacttctgcgctcggcccttccggctggctggtttattgctgataaatctggagccggtgagcgtgggtctcgcggtatcattgcagcactggggccagatggtaagccctcccgtatcgtagttatctacacgacggggagtcaggcaactatggatgaacgaaatagacagatcgctgagataggtgcctcactgattaagcattggtaactcgagctgatccttc</t>
   </si>
   <si>
@@ -151,13 +143,214 @@
   </si>
   <si>
     <t>PCR_V4</t>
+  </si>
+  <si>
+    <t>PCR</t>
+  </si>
+  <si>
+    <t>Simulated Product</t>
+  </si>
+  <si>
+    <t>Correct?</t>
+  </si>
+  <si>
+    <t>gtatcacgaggcagaatttcag</t>
+  </si>
+  <si>
+    <t>attaccgcctttgagtgagc</t>
+  </si>
+  <si>
+    <t>TATTTTGACTGATAGTGACCTGTTCGTTGCAACAAATTGATGAGCAATGCTTTTTTATAATGCCAACTTTGTACAAAAAAGCAGGCTCCGAATTGgtatcacgaggcagaatttcagataaaaaaaatccttagctttcgctaaggatgatttctgGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCtaaCTCGAcgtgcaggcttcctcgctcactgactcgctgcgctcggtcgttcggctgcggcgagcggtatcagctcactcaaaggcggtaatCAATTCGACCCAGCTTTCTTGTACAAAGTTGGCATTATAAAAAATAATTGCTCATCAATTTGTTGCAACGAACAGGTCACTATCAGTCAAAATAAAATCATTATTTG</t>
+  </si>
+  <si>
+    <t>Correct Product</t>
+  </si>
+  <si>
+    <t>GTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAAT</t>
+  </si>
+  <si>
+    <t>ccataGGATCCgtatcacgaggcagaatttcag</t>
+  </si>
+  <si>
+    <t>cgtatGAATTCattaccgcctttgagtgagc</t>
+  </si>
+  <si>
+    <t>CCATAGGATCCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATGAATTCATACG</t>
+  </si>
+  <si>
+    <t>Simple PCR</t>
+  </si>
+  <si>
+    <t>5' Tails</t>
+  </si>
+  <si>
+    <t>agtGGGTACATACGTTCGGTGGAgttttagagctagaaatagcaagttaaaataaggctagtccgttatcaacttgaaaaagtggcaccgagtcggtgctttttttgaattctctagagtcgacctgcagaagcttagatctattaccctgttatccctactcgagttcatgtgcagctccataagcaaaaggggatgataagtttatcaccaccgactatttgcaacagtgccgttgatcgtgctatgatcgactgatgtcatcagcggtggagtgcaatgtcatgagggaagcggtgatcgccgaagtatcgactcaactatcagaggtagttggcgtcatcgagcgccatctcgaaccgacgttgctggccgtacatttgtacggctccgcagtggatggcggcctgaagccacacagtgatattgatttgctggttacggtgaccgtaaggcttgatgaaacaacgcggcgagctttgatcaacgaccttttggaaacttcggcttcccctggagagagcgagattctccgcgctgtagaagtcaccattgttgtgcacgacgacatcattccgtggcgttatccagctaagcgcgaactgcaatttggagaatggcagcgcaatgacattcttgcaggtatcttcgagccagccacgatcgacattgatctggctatcttgctgacaaaagcaagagaacatagcgttgccttggtaggtccagcggcggaggaactctttgatccggttcctgaacaggatctatttgaggcgctaaatgaaaccttaacgctatggaactcgccgcccgactgggctggcgatgagcgaaatgtagtgcttacgttgtcccgcatttggtacagcgcagtaaccggcaaaatcgcgccgaaggatgtcgctgccgactgggcaatggagcgcctgccggcccagtatcagcccgtcatacttgaagctagacaggcttatcttggacaagaagaagatcgcttggcctcgcgcgcagatcagttggaagaatttgtccactacgtgaaaggcgagatcaccaaggtagtcggcaaataagatgccgctcgccagtcgattggctgagctcataagttcctattccgaagttccgcgaacgcgtaaaggatctaggtgaagatcctttttgataatctcatgaccaaaatcccttaacgtgagttttcgttccactgagcgtcagaccccgtagaaaagatcaaaggatcttcttgagatcctttttttctgcgcgtaatctgctgcttgcaaacaaaaaaaccaccgctaccagcggtggtttgtttgccggatcaagagctaccaactctttttccgaaggtaactggcttcagcagagcgcagataccaaatactgtccttctagtgtagccgtagttaggccaccacttcaagaactctgtagcaccgcctacatacctcgctctgctaatcctgttaccagtggctgctgccagtggcgataagtcgtgtcttaccgggttggactcaagacgatagttaccggataaggcgcagcggtcgggctgaacggggggttcgtgcacacagcccagcttggagcgaacgacctacaccgaactgagatacctacagcgtgagctatgagaaagcgccacgcttcccgaagggagaaaggcggacaggtatccggtaagcggcagggtcggaacaggagagcgcacgagggagcttccagggggaaacgcctggtatctttatagtcctgtcgggtttcgccacctctgacttgagcgtcgatttttgtgatgctcgtcaggggggcggagcctatggaaaaacgccagcaacgcggcctttttacggttcctggccttttgctggccttttgctcacatgttctttcctgcgttatcccctgattctgtggataaccgtattaccgcctttgagtgagctgataccgctcgccgcagccgaacgaccgagcgcagcgagtcagtgagcgaggaagcggaagagcgcctgatgcggtattttctccttacgcatctgtgcggtatttcacaccgcatatgctggatccttgacagctagctcagtcctaggtataatact</t>
+  </si>
+  <si>
+    <t>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</t>
+  </si>
+  <si>
+    <t>Long 5' Tails on Linear Template</t>
+  </si>
+  <si>
+    <t>Mutagenic Oligos on Lienar template</t>
+  </si>
+  <si>
+    <t>Circular Template Over Origin</t>
+  </si>
+  <si>
+    <t>Circular Template Over Origin, Long 5' Tails (CRISPR)</t>
+  </si>
+  <si>
+    <t>Circular Template Over Origin, Long 5' Tails, Flipped Oligos (CRISPR)</t>
+  </si>
+  <si>
+    <t>Klenow Extension, No Template</t>
+  </si>
+  <si>
+    <t>Degenerate Oligos</t>
+  </si>
+  <si>
+    <t>Not Supported/Tested: SOEing, PCA (multiple templates)</t>
+  </si>
+  <si>
+    <t>CCATAGGATCCGTATCACGAGGCAGGATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAGAGGCGGTAATGAATTCATACG</t>
+  </si>
+  <si>
+    <t>CGTATGAATTCATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCCTGCACGTCGAGTTAGGATCCTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGAGATCCTTATTAAGCACCGGTGGAGTGACGACCTTCAGCACGTTCGTACTGTTCAACGATGGTGTAGTCTTCGTTGTGGGAGGTGATGTCCAGTTTGATGTCGGTTTTGTAAGCACCCGGCAGCTGAACCGGTTTTTTAGCCATGTAGGTGGTTTTAACTTCAGCGTCGTAGTGACCACCGTCTTTCAGTTTCAGACGCATTTTGATTTCACCTTTCAGAGCACCGTCTTCCGGGTACATACGTTCGGTGGAAGCTTCCCAACCCATGGTTTTTTTCTGCATAACCGGACCGTCGGACGGGAAGTTGGTACCACGCAGTTTAACTTTGTAGATGAACTCACCGTCTTGCAGGGAGGAGTCCTGGGTAACGGTAACAACACCACCGTCTTCGAAGTTCATAACACGTTCCCATTTGAAACCTTCCGGGAAGGACAGTTTCAGGTAGTCCGGGATGTCAGCCGGGTGTTTAACGTAAGCTTTGGAACCGTACTGGAACTGCGGGGACAGGATGTCCCAAGCGAACGGCAGCGGACCACCTTTGGTAACTTTCAGTTTAGCGGTCTGGGTACCTTCGTACGGACGACCTTCACCTTCACCTTCGATTTCGAACTCGTGACCGTTAACGGAACCTTCCATACGAACTTTGAAACGCATGAACTCTTTGATAACGTCTTCGCTACTTGCCATAGATCCTTTCTCCTCTTTCAGATCCGTGCTCAGTATCTCTATCACTGATAGGGATGTCAATCTCTATCACTGATAGGGAAGATCTCATGAATTCCAGAAATCATCCTTAGCGAAAGCTAAGGATTTTTTTTATCTGAAATTCTGCCTCGTGATACGGATCCTATGG</t>
+  </si>
+  <si>
+    <t>CTCAGACTAGTATTATACCTAGGACTGAGCTAGCTGTCAAGGATCCAGCATATGCGGTGTGAAATACCGCACAGATGCGTAAGGAGAAAATACCGCATCAGGCGCTCTTCCGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTACGCGTTCGCGGAACTTCGGAATAGGAACTTATGAGCTCAGCCAATCGACTGGCGAGCGGCATCTTATTTGCCGACTACCTTGGTGATCTCGCCTTTCACGTAGTGGACAAATTCTTCCAACTGATCTGCGCGCGAGGCCAAGCGATCTTCTTCTTGTCCAAGATAAGCCTGTCTAGCTTCAAGTATGACGGGCTGATACTGGGCCGGCAGGCGCTCCATTGCCCAGTCGGCAGCGACATCCTTCGGCGCGATTTTGCCGGTTACTGCGCTGTACCAAATGCGGGACAACGTAAGCACTACATTTCGCTCATCGCCAGCCCAGTCGGGCGGCGAGTTCCATAGCGTTAAGGTTTCATTTAGCGCCTCAAATAGATCCTGTTCAGGAACCGGATCAAAGAGTTCCTCCGCCGCTGGACCTACCAAGGCAACGCTATGTTCTCTTGCTTTTGTCAGCAAGATAGCCAGATCAATGTCGATCGTGGCTGGCTCGAAGATACCTGCAAGAATGTCATTGCGCTGCCATTCTCCAAATTGCAGTTCGCGCTTAGCTGGATAACGCCACGGAATGATGTCGTCGTGCACAACAATGGTGACTTCTACAGCGCGGAGAATCTCGCTCTCTCCAGGGGAAGCCGAAGTTTCCAAAAGGTCGTTGATCAAAGCTCGCCGCGTTGTTTCATCAAGCCTTACGGTCACCGTAACCAGCAAATCAATATCACTGTGTGGCTTCAGGCCGCCATCCACTGCGGAGCCGTACAAATGTACGGCCAGCAACGTCGGTTCGAGATGGCGCTCGATGACGCCAACTACCTCTGATAGTTGAGTCGATACTTCGGCGATCACCGCTTCCCTCATGACATTGCACTCCACCGCTGATGACATCAGTCGATCATAGCACGATCAACGGCACTGTTGCAAATAGTCGGTGGTGATAAACTTATCATCCCCTTTTGCTTATGGAGCTGCACATGAACTCGAGTAGGGATAACAGGGTAATAGATCTAAGCTTCTGCAGGTCGACTCTAGAGAATTCAAAAAAAGCACCGACTCGGTGCCACTTTTTCAAGTTGATAACGGACTAGCCTTATTTTAACTTGCTATTTCTAGCTCTAAAACCTGAAACCGCTGCGGCGATGACTAGTTATGG</t>
+  </si>
+  <si>
+    <t>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</t>
+  </si>
+  <si>
+    <t>gactaGGTCTCagcagYSWKMBDHVNRtgaaatctaacaatgcgctcatc</t>
+  </si>
+  <si>
+    <t>ccaaaGGTCTCactgcgttagcaatttaactg</t>
+  </si>
+  <si>
+    <t>ttctcatgtttgacagcttatcatcgataagctttaatgcggtagtttatcacagttaaattgctaacgcagtcaggcaccgtgtatgaaatctaacaatgcgctcatcgtcatcctcggcaccgtcaccctggatgctgtaggcataggcttggttatgccggtactgccgggcctcttgcgggatatcgtccattccgacagcatcgccagtcactatggcgtgctgctagcgctatatgcgttgatgcaatttctatgcgcacccgttctcggagcactgtccgaccgctttggccgccgcccagtcctgctcgcttcgctacttggagccactatcgactacgcgatcatggcgaccacacccgtcctgtggatcctctacgccggacgcatcgtggccggcatcaccggcgccacaggtgcggttgctggcgcctatatcgccgacatcaccgatggggaagatcgggctcgccacttcgggctcatgagcgcttgtttcggcgtgggtatggtggcaggccccgtggccgggggactgttgggcgccatctccttgcatgcaccattccttgcggcggcggtgctcaacggcctcaacctactactgggctgcttcctaatgcaggagtcgcataagggagagcgtcgaccgatgcccttgagagccttcaacccagtcagctccttccggtgggcgcggggcatgactatcgtcgccgcacttatgactgtcttctttatcatgcaactcgtaggacaggtgccggcagcgctctgggtcattttcggcgaggaccgctttcgctggagcgcgacgatgatcggcctgtcgcttgcggtattcggaatcttgcacgccctcgctcaagccttcgtcactggtcccgccaccaaacgtttcggcgagaagcaggccattatcgccggcatggcggccgacgcgctgggctacgtcttgctggcgttcgcgacgcgaggctggatggccttccccattatgattcttctcgcttccggcggcatcgggatgcccgcgttgcaggccatgctgtccaggcaggtagatgacgaccatcagggacagcttcaaggatcgctcgcggctcttaccagcctaacttcgatcattggaccgctgatcgtcacggcgatttatgccgcctcggcgagcacatggaacgggttggcatggattgtaggcgccgccctataccttgtctgcctccccgcgttgcgtcgcggtgcatggagccgggccacctcgacctgaatggaagccggcggcacctcgctaacggattcaccactccaagaattggagccaatcaattcttgcggagaactgtgaatgcgcaaaccaacccttggcagaacatatccatcgcgtccgccatctccagcagccgcacgcggcgcatctcgggcagcgttgggtcctggccacgggtgcgcatgatcgtgctcctgtcgttgaggacccggctaggctggcggggttgccttactggttagcagaatgaatcaccgatacgcgagcgaacgtgaagcgactgctgctgcaaaacgtctgcgacctgagcaacaacatgaatggtcttcggtttccgtgtttcgtaaagtctggaaacgcggaagtcagcgccctgcaccattatgttccggatctgcatcgcaggatgctgctggctaccctgtggaacacctacatctgtattaacgaagcgctggcattgaccctgagtgatttttctctggtcccgccgcatccataccgccagttgtttaccctcacaacgttccagtaaccgggcatgttcatcatcagtaacccgtatcgtgagcatcctctctcgtttcatcggtatcattacccccatgaacagaaatcccccttacacggaggcatcagtgaccaaacaggaaaaaaccgcccttaacatggcccgctttatcagaagccagacattaacgcttctggagaaactcaacgagctggacgcggatgaacaggcagacatctgtgaatcgcttcacgaccacgctgatgagctttaccgcagctgcctcgcgcgtttcggtgatgacggtgaaaacctctgacacatgcagctcccggagacggtcacagcttgtctgtaagcggatgccgggagcagacaagcccgtcagggcgcgtcagcgggtgttggcgggtgtcggggcgcagccatgacccagtcacgtagcgatagcggagtgtatactggcttaactatgcggcatcagagcagattgtactgagagtgcaccatatgcggtgtgaaataccgcacagatgcgtaaggagaaaataccgcatcaggcgctcttccgcttcctcgctcactgactcgctgcgctcggtcgttcggctgcggcgagcggtatcagctcactcaaaggcggtaatacggttatccacagaatcaggggataacgcaggaaagaacatgtgagcaaaaggccagcaaaaggccaggaaccgtaaaaaggccgcgttgctggcgtttttccataggctccgcccccctgacgagcatcacaaaaatcgacgctcaagtcagaggtggcgaaacccgacaggactataaagataccaggcgtttccccctggaagctccctcgtgcgctctcctgttccgaccctgccgcttaccggatacctgtccgcctttctcccttcgggaagcgtggcgctttctcatagctcacgctgtaggtatctcagttcggtgtaggtcgttcgctccaagctgggctgtgtgcacgaaccccccgttcagcccgaccgctgcgccttatccggtaactatcgtcttgagtccaacccggtaagacacgacttatcgccactggcagcagccactggtaacaggattagcagagcgaggtatgtaggcggtgctacagagttcttgaagtggtggcctaactacggctacactagaaggacagtatttggtatctgcgctctgctgaagccagttaccttcggaaaaagagttggtagctcttgatccggcaaacaaaccaccgctggtagcggtggtttttttgtttgcaagcagcagattacgcgcagaaaaaaaggatctcaagaagatcctttgatcttttctacggggtctgacgctcagtggaacgaaaactcacgttaagggattttggtcatgagattatcaaaaaggatcttcacctagatccttttaaattaaaaatgaagttttaaatcaatctaaagtatatatgagtaaacttggtctgacagttaccaatgcttaatcagtgaggcacctatctcagcgatctgtctatttcgttcatccatagttgcctgactccccgtcgtgtagataactacgatacgggagggcttaccatctggccccagtgctgcaatgataccgcgagacccacgctcaccggctccagatttatcagcaataaaccagccagccggaagggccgagcgcagaagtggtcctgcaactttatccgcctccatccagtctattaattgttgccgggaagctagagtaagtagttcgccagttaatagtttgcgcaacgttgttgccattgctgcaggcatcgtggtgtcacgctcgtcgtttggtatggcttcattcagctccggttcccaacgatcaaggcgagttacatgatcccccatgttgtgcaaaaaagcggttagctccttcggtcctccgatcgttgtcagaagtaagttggccgcagtgttatcactcatggttatggcagcactgcataattctcttactgtcatgccatccgtaagatgcttttctgtgactggtgagtactcaaccaagtcattctgagaatagtgtatgcggcgaccgagttgctcttgcccggcgtcaacacgggataataccgcgccacatagcagaactttaaaagtgctcatcattggaaaacgttcttcggggcgaaaactctcaaggatcttaccgctgttgagatccagttcgatgtaacccactcgtgcacccaactgatcttcagcatcttttactttcaccagcgtttctgggtgagcaaaaacaggaaggcaaaatgccgcaaaaaagggaataagggcgacacggaaatgttgaatactcatactcttcctttttcaatattattgaagcatttatcagggttattgtctcatgagcggatacatatttgaatgtatttagaaaaataaacaaataggggttccgcgcacatttccccgaaaagtgccacctgacgtctaagaaaccattattatcatgacattaacctataaaaataggcgtatcacgaggccctttcgtcttcaagaa</t>
+  </si>
+  <si>
+    <t>GACTAGGTCTCAGCAGYSWKMBDHVNRTGAAATCTAACAATGCGCTCATCGTCATCCTCGGCACCGTCACCCTGGATGCTGTAGGCATAGGCTTGGTTATGCCGGTACTGCCGGGCCTCTTGCGGGATATCGTCCATTCCGACAGCATCGCCAGTCACTATGGCGTGCTGCTAGCGCTATATGCGTTGATGCAATTTCTATGCGCACCCGTTCTCGGAGCACTGTCCGACCGCTTTGGCCGCCGCCCAGTCCTGCTCGCTTCGCTACTTGGAGCCACTATCGACTACGCGATCATGGCGACCACACCCGTCCTGTGGATCCTCTACGCCGGACGCATCGTGGCCGGCATCACCGGCGCCACAGGTGCGGTTGCTGGCGCCTATATCGCCGACATCACCGATGGGGAAGATCGGGCTCGCCACTTCGGGCTCATGAGCGCTTGTTTCGGCGTGGGTATGGTGGCAGGCCCCGTGGCCGGGGGACTGTTGGGCGCCATCTCCTTGCATGCACCATTCCTTGCGGCGGCGGTGCTCAACGGCCTCAACCTACTACTGGGCTGCTTCCTAATGCAGGAGTCGCATAAGGGAGAGCGTCGACCGATGCCCTTGAGAGCCTTCAACCCAGTCAGCTCCTTCCGGTGGGCGCGGGGCATGACTATCGTCGCCGCACTTATGACTGTCTTCTTTATCATGCAACTCGTAGGACAGGTGCCGGCAGCGCTCTGGGTCATTTTCGGCGAGGACCGCTTTCGCTGGAGCGCGACGATGATCGGCCTGTCGCTTGCGGTATTCGGAATCTTGCACGCCCTCGCTCAAGCCTTCGTCACTGGTCCCGCCACCAAACGTTTCGGCGAGAAGCAGGCCATTATCGCCGGCATGGCGGCCGACGCGCTGGGCTACGTCTTGCTGGCGTTCGCGACGCGAGGCTGGATGGCCTTCCCCATTATGATTCTTCTCGCTTCCGGCGGCATCGGGATGCCCGCGTTGCAGGCCATGCTGTCCAGGCAGGTAGATGACGACCATCAGGGACAGCTTCAAGGATCGCTCGCGGCTCTTACCAGCCTAACTTCGATCATTGGACCGCTGATCGTCACGGCGATTTATGCCGCCTCGGCGAGCACATGGAACGGGTTGGCATGGATTGTAGGCGCCGCCCTATACCTTGTCTGCCTCCCCGCGTTGCGTCGCGGTGCATGGAGCCGGGCCACCTCGACCTGAATGGAAGCCGGCGGCACCTCGCTAACGGATTCACCACTCCAAGAATTGGAGCCAATCAATTCTTGCGGAGAACTGTGAATGCGCAAACCAACCCTTGGCAGAACATATCCATCGCGTCCGCCATCTCCAGCAGCCGCACGCGGCGCATCTCGGGCAGCGTTGGGTCCTGGCCACGGGTGCGCATGATCGTGCTCCTGTCGTTGAGGACCCGGCTAGGCTGGCGGGGTTGCCTTACTGGTTAGCAGAATGAATCACCGATACGCGAGCGAACGTGAAGCGACTGCTGCTGCAAAACGTCTGCGACCTGAGCAACAACATGAATGGTCTTCGGTTTCCGTGTTTCGTAAAGTCTGGAAACGCGGAAGTCAGCGCCCTGCACCATTATGTTCCGGATCTGCATCGCAGGATGCTGCTGGCTACCCTGTGGAACACCTACATCTGTATTAACGAAGCGCTGGCATTGACCCTGAGTGATTTTTCTCTGGTCCCGCCGCATCCATACCGCCAGTTGTTTACCCTCACAACGTTCCAGTAACCGGGCATGTTCATCATCAGTAACCCGTATCGTGAGCATCCTCTCTCGTTTCATCGGTATCATTACCCCCATGAACAGAAATCCCCCTTACACGGAGGCATCAGTGACCAAACAGGAAAAAACCGCCCTTAACATGGCCCGCTTTATCAGAAGCCAGACATTAACGCTTCTGGAGAAACTCAACGAGCTGGACGCGGATGAACAGGCAGACATCTGTGAATCGCTTCACGACCACGCTGATGAGCTTTACCGCAGCTGCCTCGCGCGTTTCGGTGATGACGGTGAAAACCTCTGACACATGCAGCTCCCGGAGACGGTCACAGCTTGTCTGTAAGCGGATGCCGGGAGCAGACAAGCCCGTCAGGGCGCGTCAGCGGGTGTTGGCGGGTGTCGGGGCGCAGCCATGACCCAGTCACGTAGCGATAGCGGAGTGTATACTGGCTTAACTATGCGGCATCAGAGCAGATTGTACTGAGAGTGCACCATATGCGGTGTGAAATACCGCACAGATGCGTAAGGAGAAAATACCGCATCAGGCGCTCTTCCGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTAAATTGCTAACGCAGTGAGACCTTTGG</t>
+  </si>
+  <si>
+    <t>PCRSimulatorTest1</t>
+  </si>
+  <si>
+    <t>PCRSimulatorTest2</t>
+  </si>
+  <si>
+    <t>gaattcgcggccgcttctag</t>
+  </si>
+  <si>
+    <t>gtatataaacgcagaaaggcc</t>
+  </si>
+  <si>
+    <t>aaagaattcgcggccgcttctagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttcgaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatactagtagcggccgctgcagaaa</t>
+  </si>
+  <si>
+    <t>gaattcgcggccgcttctagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttcgaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatac</t>
+  </si>
+  <si>
+    <t>ccataggatccgaattcgcggccgcttctag</t>
+  </si>
+  <si>
+    <t>cagtggaattcgtatataaacgcagaaaggcc</t>
+  </si>
+  <si>
+    <t>ccataggatccgaattcgcggccgcttctagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttcgaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatacgaattccactg</t>
+  </si>
+  <si>
+    <t>testDistinguishes</t>
+  </si>
+  <si>
+    <t>testSimplePCR</t>
+  </si>
+  <si>
+    <t>testOrdinaryPCR</t>
+  </si>
+  <si>
+    <t>testRespectsSixBases</t>
+  </si>
+  <si>
+    <t>testBubble</t>
+  </si>
+  <si>
+    <t>testCircular</t>
+  </si>
+  <si>
+    <t>testIndependent</t>
+  </si>
+  <si>
+    <t>testRevcomp</t>
+  </si>
+  <si>
+    <t>testReversed</t>
+  </si>
+  <si>
+    <t>testSixBP</t>
+  </si>
+  <si>
+    <t>testIllegalArgument</t>
+  </si>
+  <si>
+    <t>aaagaattcgcggacgcttctagagtcccaaagaattcgcggccgcttctagagtcccaaagaattcgcggcagcttctagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttcgaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatactagtagcggccgctgcagaaa</t>
+  </si>
+  <si>
+    <t>gaattcgcggccgcttctagagtcccaaagaattcgcggcagcttctagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttcgaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatac</t>
+  </si>
+  <si>
+    <t>aaagaattcgcggccgcttcaagagtcccaaagaattcgaggccgcttctagagtcccaaagaattcgcggccgcttcaagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttcgaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatactagtagcggccgctgcagaaa</t>
+  </si>
+  <si>
+    <t>gaattcgcggccgcttctagagtcccaaagaattcgcggccgcttcaagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttcgaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatac</t>
+  </si>
+  <si>
+    <t>gaattcgcgatagccgcttctag</t>
+  </si>
+  <si>
+    <t>gaattcgcgatagccgcttctagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttcgaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatac</t>
+  </si>
+  <si>
+    <t>gaagacggtggtgttgttaccgttacccaggactcctccctgcaagacggtgagttcatctacaaagttaaactgcgtggtaccaacttcccgtccgacggtccggttatgcagaaaaaaaccatgggttgggaagcttccaccgaacgtatgtacccggaagacggtgctctgaaaggtgaaatcaaaatgcgtctgaaactgaaagacggtggtcactacgacgctgaagttaaaaccacctacatggctaaaaaaccggttcagctgccgggtgcttacaaaaccgacatcaaactggacatcacctcccacaacgaagactacaccatcgttgaacagtacgaacgtgctgaaggtcgtcactccaccggtgcttaataacgctgatagtgctagtgtagatcgctactagagccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatatactagtagcggccgctgcagaaaaaagaattcgcggccgcttctagagtccctatcagtgatagagattgacatccctatcagtgatagagatactgagcactactagagaaagaggagaaatactagatggcttcctccgaagacgttatcaaagagttcatgcgtttcaaagttcgtatggaaggttccgttaacggtcacgagttcgaaatcgaaggtgaaggtgaaggtcgtccgtacgaaggtacccagaccgctaaactgaaagttaccaaaggtggtccgctgccgttcgcttgggacatcctgtccccgcagttccagtacggttccaaagcttacgttaaacacccggctgacatcccggactacctgaaactgtccttcccggaaggtttcaaatgggaacgtgttatgaacttc</t>
+  </si>
+  <si>
+    <t>GTATATAAACGCAGAAAGGCC</t>
+  </si>
+  <si>
+    <t>ggcctttctgcgtttatatac</t>
+  </si>
+  <si>
+    <t>ccggaaagacgcaaatatatg</t>
+  </si>
+  <si>
+    <t>gaattcgcggccgcttatag</t>
+  </si>
+  <si>
+    <t>ca998</t>
+  </si>
+  <si>
+    <t>Error: One or more inputs not valid DNA sequence.</t>
+  </si>
+  <si>
+    <t>Error: There was no matching 6 bp sequence for the provided oligo2.</t>
+  </si>
+  <si>
+    <t>Error: There was no matching 6 bp sequence for the provided oligo1.</t>
+  </si>
+  <si>
+    <t>Should error.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,20 +359,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,20 +413,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -227,6 +460,8 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
+      <definedName name="AreEqualDNA"/>
+      <definedName name="PCR"/>
       <definedName name="PCR_v1"/>
       <definedName name="PCR_V2"/>
       <definedName name="PCR_V3"/>
@@ -535,12 +770,590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CEE978-4441-C646-8249-282844802C86}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="87.5" style="2" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="23.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="str" cm="1">
+        <f t="array" ref="E3">[1]!PCR(B3,C3,D3)</f>
+        <v>GTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAAT</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="b" cm="1">
+        <f t="array" ref="G3">[1]!AreEqualDNA(E3,F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="str" cm="1">
+        <f t="array" ref="E4">[1]!PCR(B4,C4,D4)</f>
+        <v>CCATAGGATCCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATGAATTCATACG</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7" t="b" cm="1">
+        <f t="array" ref="G4">[1]!AreEqualDNA(E4,F4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="str" cm="1">
+        <f t="array" ref="E5">[1]!PCR(B5,C5,D5)</f>
+        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="7" t="b" cm="1">
+        <f t="array" ref="G5">[1]!AreEqualDNA(E5,F5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="str" cm="1">
+        <f t="array" ref="E6">[1]!PCR(B6,C6,D6)</f>
+        <v>CCATAGGATCCGTATCACGAGGCAGGATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAGAGGCGGTAATGAATTCATACG</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="7" t="b" cm="1">
+        <f t="array" ref="G6">[1]!AreEqualDNA(E6,F6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="str" cm="1">
+        <f t="array" ref="E7">[1]!PCR(B7,C7,D7)</f>
+        <v>CCATAGGATCCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATGAATTCATACG</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="7" t="b" cm="1">
+        <f t="array" ref="G7">[1]!AreEqualDNA(E7,F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="str" cm="1">
+        <f t="array" ref="E8">[1]!PCR(B8,C8,D8)</f>
+        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="b" cm="1">
+        <f t="array" ref="G8">[1]!AreEqualDNA(E8,F8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="str" cm="1">
+        <f t="array" ref="E9">[1]!PCR(B9,C9,D9)</f>
+        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="b" cm="1">
+        <f t="array" ref="G9">[1]!AreEqualDNA(E9,F9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="str" cm="1">
+        <f t="array" ref="E10">[1]!PCR(B10,C10,D10)</f>
+        <v>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7" t="b" cm="1">
+        <f t="array" ref="G10">[1]!AreEqualDNA(E10,F10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="str" cm="1">
+        <f t="array" ref="E11">[1]!PCR(B11,C11,D11)</f>
+        <v>GACTAGGTCTCAGCAGYSWKMBDHVNRTGAAATCTAACAATGCGCTCATCGTCATCCTCGGCACCGTCACCCTGGATGCTGTAGGCATAGGCTTGGTTATGCCGGTACTGCCGGGCCTCTTGCGGGATATCGTCCATTCCGACAGCATCGCCAGTCACTATGGCGTGCTGCTAGCGCTATATGCGTTGATGCAATTTCTATGCGCACCCGTTCTCGGAGCACTGTCCGACCGCTTTGGCCGCCGCCCAGTCCTGCTCGCTTCGCTACTTGGAGCCACTATCGACTACGCGATCATGGCGACCACACCCGTCCTGTGGATCCTCTACGCCGGACGCATCGTGGCCGGCATCACCGGCGCCACAGGTGCGGTTGCTGGCGCCTATATCGCCGACATCACCGATGGGGAAGATCGGGCTCGCCACTTCGGGCTCATGAGCGCTTGTTTCGGCGTGGGTATGGTGGCAGGCCCCGTGGCCGGGGGACTGTTGGGCGCCATCTCCTTGCATGCACCATTCCTTGCGGCGGCGGTGCTCAACGGCCTCAACCTACTACTGGGCTGCTTCCTAATGCAGGAGTCGCATAAGGGAGAGCGTCGACCGATGCCCTTGAGAGCCTTCAACCCAGTCAGCTCCTTCCGGTGGGCGCGGGGCATGACTATCGTCGCCGCACTTATGACTGTCTTCTTTATCATGCAACTCGTAGGACAGGTGCCGGCAGCGCTCTGGGTCATTTTCGGCGAGGACCGCTTTCGCTGGAGCGCGACGATGATCGGCCTGTCGCTTGCGGTATTCGGAATCTTGCACGCCCTCGCTCAAGCCTTCGTCACTGGTCCCGCCACCAAACGTTTCGGCGAGAAGCAGGCCATTATCGCCGGCATGGCGGCCGACGCGCTGGGCTACGTCTTGCTGGCGTTCGCGACGCGAGGCTGGATGGCCTTCCCCATTATGATTCTTCTCGCTTCCGGCGGCATCGGGATGCCCGCGTTGCAGGCCATGCTGTCCAGGCAGGTAGATGACGACCATCAGGGACAGCTTCAAGGATCGCTCGCGGCTCTTACCAGCCTAACTTCGATCATTGGACCGCTGATCGTCACGGCGATTTATGCCGCCTCGGCGAGCACATGGAACGGGTTGGCATGGATTGTAGGCGCCGCCCTATACCTTGTCTGCCTCCCCGCGTTGCGTCGCGGTGCATGGAGCCGGGCCACCTCGACCTGAATGGAAGCCGGCGGCACCTCGCTAACGGATTCACCACTCCAAGAATTGGAGCCAATCAATTCTTGCGGAGAACTGTGAATGCGCAAACCAACCCTTGGCAGAACATATCCATCGCGTCCGCCATCTCCAGCAGCCGCACGCGGCGCATCTCGGGCAGCGTTGGGTCCTGGCCACGGGTGCGCATGATCGTGCTCCTGTCGTTGAGGACCCGGCTAGGCTGGCGGGGTTGCCTTACTGGTTAGCAGAATGAATCACCGATACGCGAGCGAACGTGAAGCGACTGCTGCTGCAAAACGTCTGCGACCTGAGCAACAACATGAATGGTCTTCGGTTTCCGTGTTTCGTAAAGTCTGGAAACGCGGAAGTCAGCGCCCTGCACCATTATGTTCCGGATCTGCATCGCAGGATGCTGCTGGCTACCCTGTGGAACACCTACATCTGTATTAACGAAGCGCTGGCATTGACCCTGAGTGATTTTTCTCTGGTCCCGCCGCATCCATACCGCCAGTTGTTTACCCTCACAACGTTCCAGTAACCGGGCATGTTCATCATCAGTAACCCGTATCGTGAGCATCCTCTCTCGTTTCATCGGTATCATTACCCCCATGAACAGAAATCCCCCTTACACGGAGGCATCAGTGACCAAACAGGAAAAAACCGCCCTTAACATGGCCCGCTTTATCAGAAGCCAGACATTAACGCTTCTGGAGAAACTCAACGAGCTGGACGCGGATGAACAGGCAGACATCTGTGAATCGCTTCACGACCACGCTGATGAGCTTTACCGCAGCTGCCTCGCGCGTTTCGGTGATGACGGTGAAAACCTCTGACACATGCAGCTCCCGGAGACGGTCACAGCTTGTCTGTAAGCGGATGCCGGGAGCAGACAAGCCCGTCAGGGCGCGTCAGCGGGTGTTGGCGGGTGTCGGGGCGCAGCCATGACCCAGTCACGTAGCGATAGCGGAGTGTATACTGGCTTAACTATGCGGCATCAGAGCAGATTGTACTGAGAGTGCACCATATGCGGTGTGAAATACCGCACAGATGCGTAAGGAGAAAATACCGCATCAGGCGCTCTTCCGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTGCAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAACACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCAAGAATTCTCATGTTTGACAGCTTATCATCGATAAGCTTTAATGCGGTAGTTTATCACAGTTAAATTGCTAACGCAGTGAGACCTTTGG</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="8" t="b" cm="1">
+        <f t="array" ref="G11">[1]!AreEqualDNA(E11,F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="3" t="str" cm="1">
+        <f t="array" ref="E15">[1]!PCR(B15,C15,D15)</f>
+        <v>GAATTCGCGGCCGCTTCTAGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGAAAGAGGAGAAATACTAGATGGCTTCCTCCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAACGCTGATAGTGCTAGTGTAGATCGCTACTAGAGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATATAC</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="b" cm="1">
+        <f t="array" ref="G15">[1]!AreEqualDNA(E15,F15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="str" cm="1">
+        <f t="array" ref="E16">[1]!PCR(B16,C16,D16)</f>
+        <v>CCATAGGATCCGAATTCGCGGCCGCTTCTAGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGAAAGAGGAGAAATACTAGATGGCTTCCTCCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAACGCTGATAGTGCTAGTGTAGATCGCTACTAGAGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATATACGAATTCCACTG</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="7" t="b" cm="1">
+        <f t="array" ref="G16">[1]!AreEqualDNA(E16,F16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3" t="str" cm="1">
+        <f t="array" ref="E17">[1]!PCR(B17,C17,D17)</f>
+        <v>GAATTCGCGGCCGCTTCTAGAGTCCCAAAGAATTCGCGGCAGCTTCTAGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGAAAGAGGAGAAATACTAGATGGCTTCCTCCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAACGCTGATAGTGCTAGTGTAGATCGCTACTAGAGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATATAC</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="b" cm="1">
+        <f t="array" ref="G17">[1]!AreEqualDNA(E17,F17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="3" t="str" cm="1">
+        <f t="array" ref="E18">[1]!PCR(B18,C18,D18)</f>
+        <v>GAATTCGCGGCCGCTTCTAGAGTCCCAAAGAATTCGCGGCCGCTTCAAGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGAAAGAGGAGAAATACTAGATGGCTTCCTCCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAACGCTGATAGTGCTAGTGTAGATCGCTACTAGAGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATATAC</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7" t="b" cm="1">
+        <f t="array" ref="G18">[1]!AreEqualDNA(E18,F18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="3" t="str" cm="1">
+        <f t="array" ref="E19">[1]!PCR(B19,C19,D19)</f>
+        <v>GAATTCGCGATAGCCGCTTCTAGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGAAAGAGGAGAAATACTAGATGGCTTCCTCCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAACGCTGATAGTGCTAGTGTAGATCGCTACTAGAGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATATAC</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="b" cm="1">
+        <f t="array" ref="G19">[1]!AreEqualDNA(E19,F19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="3" t="str" cm="1">
+        <f t="array" ref="E20">[1]!PCR(B20,C20,D20)</f>
+        <v>GAATTCGCGGCCGCTTCTAGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGAAAGAGGAGAAATACTAGATGGCTTCCTCCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAACGCTGATAGTGCTAGTGTAGATCGCTACTAGAGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATATAC</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="7" t="b" cm="1">
+        <f t="array" ref="G20">[1]!AreEqualDNA(E20,F20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="3" t="str" cm="1">
+        <f t="array" ref="E21">[1]!PCR(B21,C21,D21)</f>
+        <v>GAATTCGCGGCCGCTTCTAGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGAAAGAGGAGAAATACTAGATGGCTTCCTCCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAACGCTGATAGTGCTAGTGTAGATCGCTACTAGAGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATATAC</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="7" t="b" cm="1">
+        <f t="array" ref="G21">[1]!AreEqualDNA(E21,F21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3" t="str" cm="1">
+        <f t="array" ref="E22">[1]!PCR(B22,C22,D22)</f>
+        <v>GAATTCGCGGCCGCTTCTAGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGAAAGAGGAGAAATACTAGATGGCTTCCTCCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAACGCTGATAGTGCTAGTGTAGATCGCTACTAGAGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGTATATAAACGCAGAAAGGCC</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="8" t="b">
+        <f t="shared" ref="G22:G24" si="0">E22=F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="str" cm="1">
+        <f t="array" ref="E23">[1]!PCR(B23,C23,D23)</f>
+        <v>Error: There was no matching 6 bp sequence for the provided oligo2.</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="3" t="str" cm="1">
+        <f t="array" ref="E24">[1]!PCR(B24,C24,D24)</f>
+        <v>Error: There was no matching 6 bp sequence for the provided oligo1.</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="3" t="str" cm="1">
+        <f t="array" ref="E25">[1]!PCR(B25,C25,D25)</f>
+        <v>Error: One or more inputs not valid DNA sequence.</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="7" t="b">
+        <f>E25=F25</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB01833-FBA1-8941-8EED-812B146F9DBD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -553,239 +1366,236 @@
     <col min="8" max="8" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="17">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="str" cm="1">
+      <c r="E2" s="3" t="str" cm="1">
         <f t="array" ref="E2">[1]!PCR_v1(B2,C2,D2)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
-      <c r="F2" t="str" cm="1">
+      <c r="F2" s="3" t="str" cm="1">
         <f t="array" ref="F2">[1]!PCR_V2(B2,C2,D2)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
-      <c r="G2" t="str" cm="1">
+      <c r="G2" s="3" t="str" cm="1">
         <f t="array" ref="G2">[1]!PCR_V3(B2,C2,D2)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
-      <c r="H2" t="str" cm="1">
+      <c r="H2" s="3" t="str" cm="1">
         <f t="array" ref="H2">[1]!PCR_V4(B2,C2,D2)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="str" cm="1">
+      <c r="I2" s="3" t="str" cm="1">
+        <f t="array" ref="I2">[1]!PCR(B2,C2,D2)</f>
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="str" cm="1">
         <f t="array" ref="E3">[1]!PCR_v1(B3,C3,D3)</f>
-        <v>CCAAAAGATCTATGAGCGGCTTCCCCCGCAGCGTCGTCGTCGGCGGCAGCGGGGCGGTGGGCGGCATGTTCGCCGGGCTGCTGCGGGAGGCGGGCAGCCGCACGCTCGTCGTCGACCTCGTACCGCCGCCGGGACGGCCGGACGCCTGCCTGGTGGGCGACGTCACCGCGCCGGGGCCCGAACTCGCGGCCGCCCTCCGGGACGCGGACCTCGTCCTGCTCGCCGTACACGAGGACGTGGCCCTCAAGGCCGTGGCGCCCGTGACCCGGCTCATGCGGCCGGGCGCGCTGCTCGCCGACACCCTGTCCGTCCGGACGGGCATGGCCGCGGAGCTCGCGGCCCACGCCCCCGGCGTCCAGCACGTGGGCCTCAACCCGATGTTCGCCCCCGCCGCCGGCATGACCGGCCGACCCGTGGCCGCCGTGGTCACCAGGGACGGGCCGGGCGTCACGGCCCTGCTGCGGCTCGTCGAGGGCGGCGGCGGCAGGCCCGTACGGCTCACGGCGGAGGAGCACGACCGGACGACGGCGGCCACCCAGGCCCTGACGCACGCCGTGCTCCTCTCCTTCGGGCTCGCCCTCGCCCGCCTCGGCGTCGACGTCCGGGCCCTGGCGGCGACGGCACCGCCGCCCCACCAGGTGCTGCTCGCCCTCCTGGCCCGTGTGCTCGGCGGCAGCCCCGAGGTGTACGGGGACATCCAGCGGTCCAACCCCCGGGCGGCGTCCGCGCGCCGGGCGCTCGCCGAGGCCCTGCGCTCCTTCGCCGCGCTGGTCGGCGACGACCCGGACCGTGCCGACGCCCCCGGGCGCGCCGACGCCCCCGGCCATCCCGGGGGATGCGACGGCGCCGGGAACCTCGACGGCGTCTTCGGGGAACTCCGCCGGCTCATGGGACCGGAGCTCGCGGCGGGCCAGGACCACTGCCAGGAGCTGTTCCGCACCCTCCACCGCACCGACGACGAAGGCGAGAAGGACCGATGAGGATCCTAACTCGAGCTAGC</v>
-      </c>
-      <c r="F3" t="str" cm="1">
+        <v>Error: One or more inputs not valid DNA sequence.</v>
+      </c>
+      <c r="F3" s="3" t="str" cm="1">
         <f t="array" ref="F3">[1]!PCR_V2(B3,C3,D3)</f>
-        <v>CCAAAAGATCTATGAGCGGCTTCCCCCGCAGCGTCGTCGTCGGCGGCAGCGGGGCGGTGGGCGGCATGTTCGCCGGGCTGCTGCGGGAGGCGGGCAGCCGCACGCTCGTCGTCGACCTCGTACCGCCGCCGGGACGGCCGGACGCCTGCCTGGTGGGCGACGTCACCGCGCCGGGGCCCGAACTCGCGGCCGCCCTCCGGGACGCGGACCTCGTCCTGCTCGCCGTACACGAGGACGTGGCCCTCAAGGCCGTGGCGCCCGTGACCCGGCTCATGCGGCCGGGCGCGCTGCTCGCCGACACCCTGTCCGTCCGGACGGGCATGGCCGCGGAGCTCGCGGCCCACGCCCCCGGCGTCCAGCACGTGGGCCTCAACCCGATGTTCGCCCCCGCCGCCGGCATGACCGGCCGACCCGTGGCCGCCGTGGTCACCAGGGACGGGCCGGGCGTCACGGCCCTGCTGCGGCTCGTCGAGGGCGGCGGCGGCAGGCCCGTACGGCTCACGGCGGAGGAGCACGACCGGACGACGGCGGCCACCCAGGCCCTGACGCACGCCGTGCTCCTCTCCTTCGGGCTCGCCCTCGCCCGCCTCGGCGTCGACGTCCGGGCCCTGGCGGCGACGGCACCGCCGCCCCACCAGGTGCTGCTCGCCCTCCTGGCCCGTGTGCTCGGCGGCAGCCCCGAGGTGTACGGGGACATCCAGCGGTCCAACCCCCGGGCGGCGTCCGCGCGCCGGGCGCTCGCCGAGGCCCTGCGCTCCTTCGCCGCGCTGGTCGGCGACGACCCGGACCGTGCCGACGCCCCCGGGCGCGCCGACGCCCCCGGCCATCCCGGGGGATGCGACGGCGCCGGGAACCTCGACGGCGTCTTCGGGGAACTCCGCCGGCTCATGGGACCGGAGCTCGCGGCGGGCCAGGACCACTGCCAGGAGCTGTTCCGCACCCTCCACCGCACCGACGACGAAGGCGAGAAGGACCGATGAGGATCCTAACTCGAGCTAGC</v>
-      </c>
-      <c r="G3" t="str" cm="1">
-        <f t="array" ref="G3">[1]!PCR_V3(B3,C3,D3)</f>
-        <v>CCAAAAGATCTATGAGCGGCTTCCCCCGCAGCGTCGTCGTCGGCGGCAGCGGGGCGGTGGGCGGCATGTTCGCCGGGCTGCTGCGGGAGGCGGGCAGCCGCACGCTCGTCGTCGACCTCGTACCGCCGCCGGGACGGCCGGACGCCTGCCTGGTGGGCGACGTCACCGCGCCGGGGCCCGAACTCGCGGCCGCCCTCCGGGACGCGGACCTCGTCCTGCTCGCCGTACACGAGGACGTGGCCCTCAAGGCCGTGGCGCCCGTGACCCGGCTCATGCGGCCGGGCGCGCTGCTCGCCGACACCCTGTCCGTCCGGACGGGCATGGCCGCGGAGCTCGCGGCCCACGCCCCCGGCGTCCAGCACGTGGGCCTCAACCCGATGTTCGCCCCCGCCGCCGGCATGACCGGCCGACCCGTGGCCGCCGTGGTCACCAGGGACGGGCCGGGCGTCACGGCCCTGCTGCGGCTCGTCGAGGGCGGCGGCGGCAGGCCCGTACGGCTCACGGCGGAGGAGCACGACCGGACGACGGCGGCCACCCAGGCCCTGACGCACGCCGTGCTCCTCTCCTTCGGGCTCGCCCTCGCCCGCCTCGGCGTCGACGTCCGGGCCCTGGCGGCGACGGCACCGCCGCCCCACCAGGTGCTGCTCGCCCTCCTGGCCCGTGTGCTCGGCGGCAGCCCCGAGGTGTACGGGGACATCCAGCGGTCCAACCCCCGGGCGGCGTCCGCGCGCCGGGCGCTCGCCGAGGCCCTGCGCTCCTTCGCCGCGCTGGTCGGCGACGACCCGGACCGTGCCGACGCCCCCGGGCGCGCCGACGCCCCCGGCCATCCCGGGGGATGCGACGGCGCCGGGAACCTCGACGGCGTCTTCGGGGAACTCCGCCGGCTCATGGGACCGGAGCTCGCGGCGGGCCAGGACCACTGCCAGGAGCTGTTCCGCACCCTCCACCGCACCGACGACGAAGGCGAGAAGGACCGATGAGGATCCTAACTCGAGCTAGC</v>
-      </c>
-      <c r="H3" t="str" cm="1">
-        <f t="array" ref="H3">[1]!PCR_V4(B3,C3,D3)</f>
-        <v>CCAAAAGATCTATGAGCGGCTTCCCCCGCAGCGTCGTCGTCGGCGGCAGCGGGGCGGTGGGCGGCATGTTCGCCGGGCTGCTGCGGGAGGCGGGCAGCCGCACGCTCGTCGTCGACCTCGTACCGCCGCCGGGACGGCCGGACGCCTGCCTGGTGGGCGACGTCACCGCGCCGGGGCCCGAACTCGCGGCCGCCCTCCGGGACGCGGACCTCGTCCTGCTCGCCGTACACGAGGACGTGGCCCTCAAGGCCGTGGCGCCCGTGACCCGGCTCATGCGGCCGGGCGCGCTGCTCGCCGACACCCTGTCCGTCCGGACGGGCATGGCCGCGGAGCTCGCGGCCCACGCCCCCGGCGTCCAGCACGTGGGCCTCAACCCGATGTTCGCCCCCGCCGCCGGCATGACCGGCCGACCCGTGGCCGCCGTGGTCACCAGGGACGGGCCGGGCGTCACGGCCCTGCTGCGGCTCGTCGAGGGCGGCGGCGGCAGGCCCGTACGGCTCACGGCGGAGGAGCACGACCGGACGACGGCGGCCACCCAGGCCCTGACGCACGCCGTGCTCCTCTCCTTCGGGCTCGCCCTCGCCCGCCTCGGCGTCGACGTCCGGGCCCTGGCGGCGACGGCACCGCCGCCCCACCAGGTGCTGCTCGCCCTCCTGGCCCGTGTGCTCGGCGGCAGCCCCGAGGTGTACGGGGACATCCAGCGGTCCAACCCCCGGGCGGCGTCCGCGCGCCGGGCGCTCGCCGAGGCCCTGCGCTCCTTCGCCGCGCTGGTCGGCGACGACCCGGACCGTGCCGACGCCCCCGGGCGCGCCGACGCCCCCGGCCATCCCGGGGGATGCGACGGCGCCGGGAACCTCGACGGCGTCTTCGGGGAACTCCGCCGGCTCATGGGACCGGAGCTCGCGGCGGGCCAGGACCACTGCCAGGAGCTGTTCCGCACCCTCCACCGCACCGACGACGAAGGCGAGAAGGACCGATGAGGATCCTAACTCGAGCTAGC</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="str" cm="1">
+        <v>Error: One or more inputs not valid DNA sequence.</v>
+      </c>
+      <c r="G3" s="3" t="str" cm="1">
+        <f t="array" ref="G3">[1]!PCR_V3(B3,C3,"")</f>
+        <v>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</v>
+      </c>
+      <c r="H3" s="3" t="str" cm="1">
+        <f t="array" ref="H3">[1]!PCR_V4(B3,C3,"")</f>
+        <v>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</v>
+      </c>
+      <c r="I3" s="3" t="str" cm="1">
+        <f t="array" ref="I3">[1]!PCR(B3,C3)</f>
+        <v>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="str" cm="1">
         <f t="array" ref="E4">[1]!PCR_v1(B4,C4,D4)</f>
-        <v>Error: One or more inputs not valid DNA sequence.</v>
-      </c>
-      <c r="F4" t="str" cm="1">
+        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
+      </c>
+      <c r="F4" s="3" t="str" cm="1">
         <f t="array" ref="F4">[1]!PCR_V2(B4,C4,D4)</f>
-        <v>Error: One or more inputs not valid DNA sequence.</v>
-      </c>
-      <c r="G4" t="str" cm="1">
-        <f t="array" ref="G4">[1]!PCR_V3(B4,C4,"")</f>
-        <v>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</v>
-      </c>
-      <c r="H4" t="str" cm="1">
-        <f t="array" ref="H4">[1]!PCR_V4(B4,C4,"")</f>
-        <v>CCATAGAATTCGGAGAGATGCCGGAGCGGCTGAACGGACCGGTNNNNNNNNACCGGAGTAGGGGCAACTCTACCGGGGGTTCAAATCCCCCTCTCTCCGCCACTGCAGATGAC</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="str" cm="1">
+        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
+      </c>
+      <c r="G4" s="3" t="str" cm="1">
+        <f t="array" ref="G4">[1]!PCR_V3(B4,C4,D4)</f>
+        <v>No PCR product generated.</v>
+      </c>
+      <c r="H4" s="3" t="str" cm="1">
+        <f t="array" ref="H4">[1]!PCR_V4(B4,C4,D4)</f>
+        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
+      </c>
+      <c r="I4" s="3" t="str" cm="1">
+        <f t="array" ref="I4">[1]!PCR(B4,C4,D4)</f>
+        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="str" cm="1">
         <f t="array" ref="E5">[1]!PCR_v1(B5,C5,D5)</f>
-        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
-      </c>
-      <c r="F5" t="str" cm="1">
+        <v>CCATAGGATCCGTATCACGAGGCAGGATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAGAGGCGGTAATGAATTCATACG</v>
+      </c>
+      <c r="F5" s="3" t="str" cm="1">
         <f t="array" ref="F5">[1]!PCR_V2(B5,C5,D5)</f>
-        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
-      </c>
-      <c r="G5" t="str" cm="1">
+        <v>CCATAGGATCCGTATCACGAGGCAGGATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAGAGGCGGTAATGAATTCATACG</v>
+      </c>
+      <c r="G5" s="3" t="str" cm="1">
         <f t="array" ref="G5">[1]!PCR_V3(B5,C5,D5)</f>
         <v>No PCR product generated.</v>
       </c>
-      <c r="H5" t="str" cm="1">
+      <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">[1]!PCR_V4(B5,C5,D5)</f>
-        <v>CCATAACTAGTCATCGCCGCAGCGGTTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTGAATTCTCTAGAGTCGACCTGCAGAAGCTTAGATCTATTACCCTGTTATCCCTACTCGAGTTCATGTGCAGCTCCATAAGCAAAAGGGGATGATAAGTTTATCACCACCGACTATTTGCAACAGTGCCGTTGATCGTGCTATGATCGACTGATGTCATCAGCGGTGGAGTGCAATGTCATGAGGGAAGCGGTGATCGCCGAAGTATCGACTCAACTATCAGAGGTAGTTGGCGTCATCGAGCGCCATCTCGAACCGACGTTGCTGGCCGTACATTTGTACGGCTCCGCAGTGGATGGCGGCCTGAAGCCACACAGTGATATTGATTTGCTGGTTACGGTGACCGTAAGGCTTGATGAAACAACGCGGCGAGCTTTGATCAACGACCTTTTGGAAACTTCGGCTTCCCCTGGAGAGAGCGAGATTCTCCGCGCTGTAGAAGTCACCATTGTTGTGCACGACGACATCATTCCGTGGCGTTATCCAGCTAAGCGCGAACTGCAATTTGGAGAATGGCAGCGCAATGACATTCTTGCAGGTATCTTCGAGCCAGCCACGATCGACATTGATCTGGCTATCTTGCTGACAAAAGCAAGAGAACATAGCGTTGCCTTGGTAGGTCCAGCGGCGGAGGAACTCTTTGATCCGGTTCCTGAACAGGATCTATTTGAGGCGCTAAATGAAACCTTAACGCTATGGAACTCGCCGCCCGACTGGGCTGGCGATGAGCGAAATGTAGTGCTTACGTTGTCCCGCATTTGGTACAGCGCAGTAACCGGCAAAATCGCGCCGAAGGATGTCGCTGCCGACTGGGCAATGGAGCGCCTGCCGGCCCAGTATCAGCCCGTCATACTTGAAGCTAGACAGGCTTATCTTGGACAAGAAGAAGATCGCTTGGCCTCGCGCGCAGATCAGTTGGAAGAATTTGTCCACTACGTGAAAGGCGAGATCACCAAGGTAGTCGGCAAATAAGATGCCGCTCGCCAGTCGATTGGCTGAGCTCATAAGTTCCTATTCCGAAGTTCCGCGAACGCGTAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGCTGGATCCTTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTCTGAG</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="str" cm="1">
+        <v>No PCR product generated.</v>
+      </c>
+      <c r="I5" s="3" t="str" cm="1">
+        <f t="array" ref="I5">[1]!PCR(B5,C5,D5)</f>
+        <v>CCATAGGATCCGTATCACGAGGCAGGATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAGAGGCGGTAATGAATTCATACG</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="85">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="str" cm="1">
         <f t="array" ref="E6">[1]!PCR_v1(B6,C6,D6)</f>
-        <v>CCATAGGATCCGTATCACGAGGCAGGATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAGAGGCGGTAATGAATTCATACG</v>
-      </c>
-      <c r="F6" t="str" cm="1">
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
+      <c r="F6" s="3" t="str" cm="1">
         <f t="array" ref="F6">[1]!PCR_V2(B6,C6,D6)</f>
-        <v>CCATAGGATCCGTATCACGAGGCAGGATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCATGAGATCTTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACGGATCTGAAAGAGGAGAAAGGATCTATGGCAAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAATAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCTACTAGAGTCACACTGGCTCACCTTCGGGTGGGCCTTTCTGCGTTTATAGGATCCTAACTCGACGTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAGAGGCGGTAATGAATTCATACG</v>
-      </c>
-      <c r="G6" t="str" cm="1">
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
+      <c r="G6" s="3" t="str" cm="1">
         <f t="array" ref="G6">[1]!PCR_V3(B6,C6,D6)</f>
-        <v>No PCR product generated.</v>
-      </c>
-      <c r="H6" t="str" cm="1">
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
+      <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">[1]!PCR_V4(B6,C6,D6)</f>
-        <v>No PCR product generated.</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="68">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
+      <c r="I6" s="3" t="str" cm="1">
+        <f t="array" ref="I6">[1]!PCR(B6,C6,D6)</f>
+        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="str" cm="1">
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="str" cm="1">
         <f t="array" ref="E7">[1]!PCR_v1(B7,C7,D7)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
-      <c r="F7" t="str" cm="1">
+      <c r="F7" s="3" t="str" cm="1">
         <f t="array" ref="F7">[1]!PCR_V2(B7,C7,D7)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
-      <c r="G7" t="str" cm="1">
+      <c r="G7" s="3" t="str" cm="1">
         <f t="array" ref="G7">[1]!PCR_V3(B7,C7,D7)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
-      <c r="H7" t="str" cm="1">
+      <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">[1]!PCR_V4(B7,C7,D7)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="34">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="str" cm="1">
-        <f t="array" ref="E8">[1]!PCR_v1(B8,C8,D8)</f>
-        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
-      </c>
-      <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">[1]!PCR_V2(B8,C8,D8)</f>
-        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
-      </c>
-      <c r="G8" t="str" cm="1">
-        <f t="array" ref="G8">[1]!PCR_V3(B8,C8,D8)</f>
-        <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
-      </c>
-      <c r="H8" t="str" cm="1">
-        <f t="array" ref="H8">[1]!PCR_V4(B8,C8,D8)</f>
+      <c r="I7" s="3" t="str" cm="1">
+        <f t="array" ref="I7">[1]!PCR(B7,C7,D7)</f>
         <v>CCAGTGAATTCGTCCTCTAGAGAGCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTATGAGCCATATTCAACGGGAAACGTCTTGCTCCAGGCCGCGATTAAATTCCAACATGGATGCTGATTTATATGGGTATAAATGGGCTCGCGATAATGTCGGGCAATCAGGTGCGACAATCTATCGATTGTATGGGAAGCCCGATGCGCCAGAGTTGTTTCTGAAACATGGCAAAGGTAGCGTTGCCAATGATGTTACAGATGAGATGGTCAGACTAAACTGGCTGACGGAATTTATGCCTCTTCCGACCATCAAGCATTTTATCCGTACTCCTGATGATGCATGGTTACTCACCACTGCGATCCCCGGGAAAACAGCATTCCAGGTATTAGAAGAATATCCTGATTCAGGTGAAAATATTGTTGATGCGCTGGCAGTGTTCCTGCGCCGGTTGCATTCGATTCCTGTTTGTAATTGTCCTTTTAACAGCGATCGCGTATTTCGTCTCGCTCAGGCGCAATCACGAATGAATAACGGTTTGGTTGATGCGAGTGATTTTGATGACGAGCGTAATGGCTGGCCTGTTGAACAAGTCTGGAAAGAAATGCATAAGCTTTTGCCATTCTCACCGGATTCAGTCGTCACTCATGGTGATTTCTCACTTGATAACCTTATTTTTGACGAGGGGAAATTAATAGGTTGTATTGATGTTGGACGAGTCGGAATCGCAGACCGATACCAGGATCTTGCCATCCTATGGAACTGCCTCGGTGAGTTTTCTCCTTCATTACAGAAACGGCTTTTTCAAAAATATGGTATTGATAATCCTGATATGAATAAATTGCAGTTTCATTTGATGCTCGATGAGTTTTTCTAATCAGAATTGGTTAATTGGTTGTAACACTGGCAGAGCATTACGCTGACTTGACGGAACTAGTACTGC</v>
       </c>
     </row>
